--- a/artfynd/A 6207-2021.xlsx
+++ b/artfynd/A 6207-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79774873</v>
+        <v>79774876</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>608717.4321644234</v>
+        <v>608288.8702958599</v>
       </c>
       <c r="R3" t="n">
-        <v>7217983.075721781</v>
+        <v>7218301.079686536</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79774871</v>
+        <v>79774874</v>
       </c>
       <c r="B4" t="n">
-        <v>89577</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>608717.4321644234</v>
+        <v>608288.8702958599</v>
       </c>
       <c r="R4" t="n">
-        <v>7217983.075721781</v>
+        <v>7218301.079686536</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79774876</v>
+        <v>79774883</v>
       </c>
       <c r="B5" t="n">
-        <v>78596</v>
+        <v>78503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>608288.8702958599</v>
+        <v>608491.8498256375</v>
       </c>
       <c r="R5" t="n">
-        <v>7218301.079686536</v>
+        <v>7218404.7792288</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79774874</v>
+        <v>79774879</v>
       </c>
       <c r="B6" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>608288.8702958599</v>
+        <v>608470.5763771222</v>
       </c>
       <c r="R6" t="n">
-        <v>7218301.079686536</v>
+        <v>7218396.822590293</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79774883</v>
+        <v>94318498</v>
       </c>
       <c r="B7" t="n">
-        <v>78503</v>
+        <v>78570</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,41 +1252,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Grönberget, Ly lm</t>
+          <t>Grönberget, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>608491.8498256375</v>
+        <v>608438.9848422199</v>
       </c>
       <c r="R7" t="n">
-        <v>7218404.7792288</v>
+        <v>7218451.414541564</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1336,26 +1336,45 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79774879</v>
+        <v>94318497</v>
       </c>
       <c r="B8" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,41 +1383,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Grönberget, Ly lm</t>
+          <t>Grönberget, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>608470.5763771222</v>
+        <v>608426.490506765</v>
       </c>
       <c r="R8" t="n">
-        <v>7218396.822590293</v>
+        <v>7218480.942330238</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1422,7 +1441,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1451,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1448,23 +1467,42 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94318498</v>
+        <v>94318500</v>
       </c>
       <c r="B9" t="n">
         <v>78570</v>
@@ -1504,10 +1542,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>608438.9848422199</v>
+        <v>608457.0612170503</v>
       </c>
       <c r="R9" t="n">
-        <v>7218451.414541564</v>
+        <v>7218419.556470885</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1595,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94318505</v>
+        <v>94318499</v>
       </c>
       <c r="B10" t="n">
-        <v>89952</v>
+        <v>78602</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,25 +1645,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>760</v>
+        <v>6463</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>608458.9488573968</v>
+        <v>608457.0612170503</v>
       </c>
       <c r="R10" t="n">
-        <v>7217962.6428657</v>
+        <v>7218419.556470885</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,10 +1764,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94318497</v>
+        <v>79774873</v>
       </c>
       <c r="B11" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,37 +1780,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Grönberget, Storuman, Ly lm</t>
+          <t>Grönberget, Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>608426.490506765</v>
+        <v>608717.4321644234</v>
       </c>
       <c r="R11" t="n">
-        <v>7218480.942330238</v>
+        <v>7217983.075721781</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1796,7 +1834,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1806,7 +1844,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1822,45 +1860,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Carl Jansson, Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94318500</v>
+        <v>79774871</v>
       </c>
       <c r="B12" t="n">
-        <v>78570</v>
+        <v>89577</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1869,41 +1888,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Grönberget, Storuman, Ly lm</t>
+          <t>Grönberget, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>608457.0612170503</v>
+        <v>608717.4321644234</v>
       </c>
       <c r="R12" t="n">
-        <v>7218419.556470885</v>
+        <v>7217983.075721781</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1927,7 +1946,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1937,7 +1956,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1953,45 +1972,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Carl Jansson, Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94318503</v>
+        <v>94318505</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>89952</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,25 +2000,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>760</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>608945.820947971</v>
+        <v>608458.9488573968</v>
       </c>
       <c r="R13" t="n">
-        <v>7217890.071250118</v>
+        <v>7217962.6428657</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94318499</v>
+        <v>94318503</v>
       </c>
       <c r="B14" t="n">
-        <v>78602</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>608457.0612170503</v>
+        <v>608945.820947971</v>
       </c>
       <c r="R14" t="n">
-        <v>7218419.556470885</v>
+        <v>7217890.071250118</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,17 +2218,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 6207-2021.xlsx
+++ b/artfynd/A 6207-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79774876</v>
+        <v>79774873</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>608288.8702958599</v>
+        <v>608717.4321644234</v>
       </c>
       <c r="R3" t="n">
-        <v>7218301.079686536</v>
+        <v>7217983.075721781</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79774874</v>
+        <v>79774871</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>89577</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>48</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>608288.8702958599</v>
+        <v>608717.4321644234</v>
       </c>
       <c r="R4" t="n">
-        <v>7218301.079686536</v>
+        <v>7217983.075721781</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79774883</v>
+        <v>79774876</v>
       </c>
       <c r="B5" t="n">
-        <v>78503</v>
+        <v>78596</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>608491.8498256375</v>
+        <v>608288.8702958599</v>
       </c>
       <c r="R5" t="n">
-        <v>7218404.7792288</v>
+        <v>7218301.079686536</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79774879</v>
+        <v>79774874</v>
       </c>
       <c r="B6" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>608470.5763771222</v>
+        <v>608288.8702958599</v>
       </c>
       <c r="R6" t="n">
-        <v>7218396.822590293</v>
+        <v>7218301.079686536</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94318498</v>
+        <v>79774883</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>78503</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,41 +1252,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Grönberget, Storuman, Ly lm</t>
+          <t>Grönberget, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>608438.9848422199</v>
+        <v>608491.8498256375</v>
       </c>
       <c r="R7" t="n">
-        <v>7218451.414541564</v>
+        <v>7218404.7792288</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1336,45 +1336,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Carl Jansson, Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94318497</v>
+        <v>79774879</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,41 +1364,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Grönberget, Storuman, Ly lm</t>
+          <t>Grönberget, Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>608426.490506765</v>
+        <v>608470.5763771222</v>
       </c>
       <c r="R8" t="n">
-        <v>7218480.942330238</v>
+        <v>7218396.822590293</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1441,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1451,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1467,42 +1448,23 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Emil Larsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson, Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94318500</v>
+        <v>94318498</v>
       </c>
       <c r="B9" t="n">
         <v>78570</v>
@@ -1542,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>608457.0612170503</v>
+        <v>608438.9848422199</v>
       </c>
       <c r="R9" t="n">
-        <v>7218419.556470885</v>
+        <v>7218451.414541564</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1633,10 +1595,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94318499</v>
+        <v>94318505</v>
       </c>
       <c r="B10" t="n">
-        <v>78602</v>
+        <v>89952</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,25 +1607,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6463</v>
+        <v>760</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1673,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>608457.0612170503</v>
+        <v>608458.9488573968</v>
       </c>
       <c r="R10" t="n">
-        <v>7218419.556470885</v>
+        <v>7217962.6428657</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1764,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79774873</v>
+        <v>94318497</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1780,37 +1742,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Grönberget, Ly lm</t>
+          <t>Grönberget, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>608717.4321644234</v>
+        <v>608426.490506765</v>
       </c>
       <c r="R11" t="n">
-        <v>7217983.075721781</v>
+        <v>7218480.942330238</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1834,7 +1796,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1844,7 +1806,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1860,26 +1822,45 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79774871</v>
+        <v>94318500</v>
       </c>
       <c r="B12" t="n">
-        <v>89577</v>
+        <v>78570</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,41 +1869,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Grönberget, Ly lm</t>
+          <t>Grönberget, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>608717.4321644234</v>
+        <v>608457.0612170503</v>
       </c>
       <c r="R12" t="n">
-        <v>7217983.075721781</v>
+        <v>7218419.556470885</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1946,7 +1927,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1956,7 +1937,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1972,26 +1953,45 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Emil Larsson</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94318505</v>
+        <v>94318503</v>
       </c>
       <c r="B13" t="n">
-        <v>89952</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,25 +2000,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>760</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>608458.9488573968</v>
+        <v>608945.820947971</v>
       </c>
       <c r="R13" t="n">
-        <v>7217962.6428657</v>
+        <v>7217890.071250118</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94318503</v>
+        <v>94318499</v>
       </c>
       <c r="B14" t="n">
-        <v>89410</v>
+        <v>78602</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>608945.820947971</v>
+        <v>608457.0612170503</v>
       </c>
       <c r="R14" t="n">
-        <v>7217890.071250118</v>
+        <v>7218419.556470885</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,17 +2218,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
